--- a/medicine/Handicap/Wonder_(film)/Wonder_(film).xlsx
+++ b/medicine/Handicap/Wonder_(film)/Wonder_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wonder, ou Merveilleux au Québec, est un film dramatique américain coécrit et réalisé par Stephen Chbosky, sorti en 2017. Il s’agit de l’adaptation du roman éponyme de R. J. Palacio (2012).
 Un spin-off, White Bird: A Wonder Story, sortira en 2022.
@@ -512,11 +524,48 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">August « Auggie » Pullman (Jacob Tremblay) est un garçon né avec une malformation faciale appelée le syndrome de Treacher Collins qui l'a empêché jusqu'à présent d'aller normalement à l'école du fait des nombreuses opérations chirurgicales qu'il a subies pendant son enfance. Et c'est sa mère qui a assuré un enseignement à la maison. Enfant intelligent et passionné par les sciences, il se prépare à intégrer sa première année de middle school (équivalent à la fin de l'école primaire) dans une école privée de son quartier, Beecher Prep. Avec l'aide de ses parents (Julia Roberts et Owen Wilson) et de sa sœur (Izabela Vidovic), il doit surmonter moqueries, mises à l'écart et méchancetés d'autres élèves, mais réussira à se faire accepter.
-Résumé détaillé
-Le film adopte principalement le point de vue du petit August « Auggie » Pullman (Jacob Tremblay), un garçon de 10 ans présentant une malformation faciale, mais adopte ponctuellement le point de vue de trois autres personnages : sa très aimante sœur Olivia « Via » (Izabela Vidovic), Miranda (Danielle Rose Russell), la meilleure amie de cette dernière, et Jack (Noah Jupe), qui deviendra l'ami d'Auggie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wonder_(film)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wonder_(film)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film adopte principalement le point de vue du petit August « Auggie » Pullman (Jacob Tremblay), un garçon de 10 ans présentant une malformation faciale, mais adopte ponctuellement le point de vue de trois autres personnages : sa très aimante sœur Olivia « Via » (Izabela Vidovic), Miranda (Danielle Rose Russell), la meilleure amie de cette dernière, et Jack (Noah Jupe), qui deviendra l'ami d'Auggie.
 Après 27 opérations chirurgicales, Auggie s'apprête à faire sa première entrée à l'école, sa mère Isabel (Julia Roberts) ne pouvant plus assurer son éducation à la maison. Auggie et sa famille appréhendent grandement ce moment, craignant que les autres élèves ne stigmatisent Auggie à cause de sa malformation faciale, en dépit du soutien du principal de l'école, Mr Tushman (Fessman dans la version française) (Mandy Patinkin), dont le nom l'a autrefois soumis aux moqueries à l'école. Peu avant la rentrée, Isabel emmène Auggie visiter l'école en compagnie de trois autres élèves : si Julian (Bryce Geishar) se montre désagréable, Charlotte (Elle McKinnon) et surtout Jack se montrent plus amicaux.
 Le premier jour est difficile pour les deux enfants Pullman. Comme c'était à craindre, Auggie a dû subir des moqueries à cause de son physique et retourne à la maison les larmes aux yeux, tandis qu'au lycée, Olivia voit sa meilleure amie Miranda s'éloigner mystérieusement d'elle. Miranda expliquera plus tard qu'elle a travaillé dans un camp d'été pendant les vacances et que, se sentant délaissée par ses parents, elle s'est inventée une vie en prétendant avoir celle de Via, et a dû s'éloigner de cette dernière pour ne pas avoir à assumer les conséquences de son mensonge. Via rencontre toutefois Justin (Nadji Peter), un autre élève dont elle tombe amoureuse. La vie à l'école finit par s'améliorer pour Auggie, qui se lie d'amitié avec Jack pour le plus grand bonheur de ses parents, soulagés de voir que leur fils s'intègre.
 Cependant, lors de la soirée d'Halloween, Auggie entend Jack parler de lui à la bande de Julian, affirmant que son amitié pour le petit garçon est feinte et qu'il se suiciderait s'il avait à vivre avec le même visage. Effondré, Auggie se précipite chez lui, le cœur brisé. Sa sœur Via, bien que contrariée que les malheurs d'Auggie la privent d'une journée avec sa mère, le réconforte, partageant sa tristesse de ne plus avoir sa meilleure amie avec elle. Les deux enfants Pullman sortent ensuite récolter ensemble des bonbons. Grâce à Via, Auggie accepte de continuer à aller à l'école mais décide de ne plus parler à Jack, qui ne comprend pas ce qu'il se passe car il ne sait pas qu'Auggie l'a entendu. Un passage au point de vue de Jack permet de comprendre que ce dernier souhaite réellement être ami avec Auggie, qu'il trouve extraordinaire. La solitude d'Auggie ne dure pas longtemps : il se lie d'amitié avec une autre élève de sa classe, Summer (Millie Davis).
@@ -527,31 +576,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Wonder_(film)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Wonder_(film)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original et français : Wonder
 Titre québécois : Merveilleux
@@ -579,31 +630,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Wonder_(film)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Wonder_(film)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Julia Roberts (VF : Céline Monsarrat ; VQ : Mélanie Laberge) : Isabel Pullman
 Owen Wilson (VF : Lionel Tua ; VQ : Antoine Durand) : Nate Pullman
@@ -636,37 +689,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Wonder_(film)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Wonder_(film)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Box Office</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-Unis, le film débuta au numéro deux pour son premier week-end avec 27 547 866 $, derrière Justice League, en deuxième semaine, Wonder réalisa plus de 22,6 millions de dollars, toujours derrière Justice League. Lors de sa troisième semaine, les entrées en salles américaine réaliseront 12,14 millions de dollars, une baisse de 46,4 %. Suite à 15 semaines d'exploitation aux États-Unis, le film réalisa plus de 132,3 millions de dollars.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -688,10 +710,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Box Office</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, le film débuta au numéro deux pour son premier week-end avec 27 547 866 $, derrière Justice League, en deuxième semaine, Wonder réalisa plus de 22,6 millions de dollars, toujours derrière Justice League. Lors de sa troisième semaine, les entrées en salles américaine réaliseront 12,14 millions de dollars, une baisse de 46,4 %. Suite à 15 semaines d'exploitation aux États-Unis, le film réalisa plus de 132,3 millions de dollars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Wonder_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wonder_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Nominations :
 2018 : 20e cérémonie des Teen Choice Awards :
@@ -701,34 +758,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Wonder_(film)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Wonder_(film)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Différences entre le livre et le film
-Bien que reprenant la majeure partie des éléments du roman dont il est adapté, le film présente quelques écarts avec l’œuvre originale :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Différences entre le livre et le film</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bien que reprenant la majeure partie des éléments du roman dont il est adapté, le film présente quelques écarts avec l’œuvre originale :
 Le film ne présente que les points de vue d'Auggie, de Via, de Jack et de Miranda. En plus de ces personnages, le roman décrit également les points de vue de Justin, le petit ami de Via, et de Summer, une amie d'Auggie.
 Dans le roman, Summer se lie d'amitié avec Auggie dès le premier jour d'école. Dans le film, elle ne l'approche qu'après qu'Auggie s'est éloigné de Jack.
 L'idée que les autres élèves puissent avoir la « peste » s'ils touchent Auggie est bien plus présente dans le roman qu'elle ne l'est dans le film.
